--- a/worldcloud/comment_review.xlsx
+++ b/worldcloud/comment_review.xlsx
@@ -448,301 +448,301 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>效果</t>
+          <t>包装</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>味道</t>
+          <t>京东</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>包装</t>
+          <t>物流</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>口感</t>
+          <t>效果</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>喜欢</t>
+          <t>味道</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>孩子</t>
+          <t>同仁堂</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>推荐</t>
+          <t>质量</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>方便</t>
+          <t>喜欢</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>八珍</t>
+          <t>口感</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>同仁堂</t>
+          <t>满意</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>物流</t>
+          <t>好吃</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>京东</t>
+          <t>方便</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>回购</t>
+          <t>八珍</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>质量</t>
+          <t>产品</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>54</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>独立</t>
+          <t>品牌</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>健康</t>
+          <t>价格</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>好吃</t>
+          <t>速度</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>产品</t>
+          <t>推荐</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>朋友</t>
+          <t>信赖</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>身体</t>
+          <t>快递</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>品牌</t>
+          <t>服务</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>价格</t>
+          <t>放心</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>干净</t>
+          <t>实惠</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>瓜籽</t>
+          <t>发货</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>湿气</t>
+          <t>回购</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>放心</t>
+          <t>孩子</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>满意</t>
+          <t>独立</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>好喝</t>
+          <t>芝麻</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>调理</t>
+          <t>茯苓</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>黄芪</t>
+          <t>正品</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
